--- a/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
+++ b/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Subjects</t>
   </si>
@@ -83,7 +83,16 @@
     <t>NDQuang</t>
   </si>
   <si>
-    <t>HTQuang</t>
+    <t>Xóa bỏ thông báo khi đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Bang</t>
+  </si>
+  <si>
+    <t>Hoàn thành các giao diện còn thiếu(3 form NguyenMauPT, PhuongTien,VanHanh</t>
+  </si>
+  <si>
+    <t>Đổi tên các control trên form… nút bấm , dataview …</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD80"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -535,39 +544,129 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="7"/>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4">
+        <v>41624</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41624</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="7"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>41624</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41625</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="7"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41624</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41626</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
       <c r="I10" s="5"/>
     </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10"/>
@@ -577,9 +676,25 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+    </row>
     <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -658,7 +773,7 @@
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$39</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H10 H12:H1048576</xm:sqref>
+          <xm:sqref>H12:H1048576 H2:H10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -683,7 +798,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
+++ b/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
@@ -106,16 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -124,16 +115,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -159,26 +158,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,13 +176,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,253 +490,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="66.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.75" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>41624</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>41624</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>41624</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>41625</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>41624</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>41626</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H18"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G23"/>
-      <c r="H23"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24"/>
-      <c r="H24" s="8"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="44" spans="1:8" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:H23"/>
@@ -801,12 +796,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -817,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -828,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -839,7 +834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -850,15 +845,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>

--- a/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
+++ b/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Subjects</t>
   </si>
@@ -93,6 +93,32 @@
   </si>
   <si>
     <t>Đổi tên các control trên form… nút bấm , dataview …</t>
+  </si>
+  <si>
+    <t>Chỉnh form ra giữa màn hình,đổi tiêu đề form, chọn cả dòng</t>
+  </si>
+  <si>
+    <t>From DonViQuanLy</t>
+  </si>
+  <si>
+    <t>From DonViTC</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>NguyenMauPhuongTien</t>
+  </si>
+  <si>
+    <t>PhuongTien
++ AutoNum =tự tăng, do cơ sở dữ liệu quy đinh.
++ PhuonTienID = AutoNum+ MaLoai_PT
++LanTieuTu…..</t>
+  </si>
+  <si>
+    <t>VanHanh
++ ID tự tăng VH+autoNumber
++ Chưa rõ về ca làm việc</t>
   </si>
 </sst>
 </file>
@@ -106,7 +132,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -115,7 +141,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -124,7 +150,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -132,7 +158,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -490,23 +516,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="66.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="42.75" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -538,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -554,6 +580,9 @@
       <c r="E2" s="8">
         <v>41624</v>
       </c>
+      <c r="F2" s="8">
+        <v>41624</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
@@ -562,7 +591,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -578,14 +607,17 @@
       <c r="E3" s="8">
         <v>41625</v>
       </c>
+      <c r="F3" s="8">
+        <v>41625</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -599,61 +631,186 @@
         <v>41624</v>
       </c>
       <c r="E4" s="8">
-        <v>41626</v>
+        <v>41625</v>
+      </c>
+      <c r="F4" s="8">
+        <v>41625</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8">
+        <v>41625</v>
+      </c>
+      <c r="E5" s="8">
+        <v>41625</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8">
+        <v>41625</v>
+      </c>
+      <c r="E6" s="8">
+        <v>41626</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8">
+        <v>41626</v>
+      </c>
+      <c r="E7" s="8">
+        <v>41627</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8">
+        <v>41627</v>
+      </c>
+      <c r="E8" s="8">
+        <v>41628</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41628</v>
+      </c>
+      <c r="E9" s="8">
+        <v>41629</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8">
+        <v>41629</v>
+      </c>
+      <c r="E10" s="8">
+        <v>41631</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
+        <v>41630</v>
+      </c>
+      <c r="E11" s="8">
+        <v>41633</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -670,29 +827,29 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,19 +860,19 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
@@ -754,7 +911,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F1048576 D76:E1048576 D12:F18 D1:F10">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F1048576 D76:E1048576 D12:F18 D1:F10 D11:E11">
       <formula1>41309</formula1>
       <formula2>41639</formula2>
     </dataValidation>
@@ -768,19 +925,19 @@
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$39</xm:f>
           </x14:formula1>
-          <xm:sqref>H12:H1048576 H2:H10</xm:sqref>
+          <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G10 G12:G1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C10 C12:C1048576</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -796,12 +953,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -812,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -823,7 +980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -834,7 +991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -845,7 +1002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -853,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>

--- a/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
+++ b/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
@@ -132,7 +132,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -141,7 +141,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -150,7 +150,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -158,7 +158,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -518,21 +518,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="66.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="42.75" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="9"/>
+    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -617,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -668,7 +668,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -692,7 +692,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -715,7 +715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -739,7 +739,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -827,29 +827,29 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,19 +860,19 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
@@ -953,12 +953,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -969,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -980,7 +980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -991,7 +991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>

--- a/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
+++ b/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Subjects</t>
   </si>
@@ -119,6 +119,9 @@
     <t>VanHanh
 + ID tự tăng VH+autoNumber
 + Chưa rõ về ca làm việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anh xem lại cái chức năng delete của em , thêm nữa là : những bản ghi em thêm trc khi anh sửa code của em ko sửa và xóa dc ạ, nó hiện lên ràng buộc khóa j đấy </t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,7 +671,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -690,9 +693,11 @@
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -715,7 +720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -739,7 +744,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -763,7 +768,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -787,7 +792,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>

--- a/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
+++ b/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
@@ -110,18 +110,18 @@
     <t>NguyenMauPhuongTien</t>
   </si>
   <si>
+    <t>VanHanh
++ ID tự tăng VH+autoNumber
++ Chưa rõ về ca làm việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anh xem lại cái chức năng delete của em , thêm nữa là : những bản ghi em thêm trc khi anh sửa code của em ko sửa và xóa dc ạ, nó hiện lên ràng buộc khóa j đấy </t>
+  </si>
+  <si>
     <t>PhuongTien
 + AutoNum =tự tăng, do cơ sở dữ liệu quy đinh.
 + PhuonTienID = AutoNum+ MaLoai_PT
-+LanTieuTu…..</t>
-  </si>
-  <si>
-    <t>VanHanh
-+ ID tự tăng VH+autoNumber
-+ Chưa rõ về ca làm việc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anh xem lại cái chức năng delete của em , thêm nữa là : những bản ghi em thêm trc khi anh sửa code của em ko sửa và xóa dc ạ, nó hiện lên ràng buộc khóa j đấy </t>
++LanBDTX chỉ nhân các giá trị(1,2,3).theo quy định thì cứ  3 lần BDTX thì là 1 lần TieuTu , 3 lần TieuTu = 1 lan TrungTu…….các giá trị (1,2,3) dc tính bởi phép chia  TongVH/BDTX  or TongVh/TieuTu....lấy phần nguyên (BDTX , TieuTu , TrungTu , DaiTu là các môc cần phải bảo trì do nhà Quản Lý cung cấp và mình update vào... lấy ở bảng NguyenMauPT)</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -688,13 +688,13 @@
         <v>41626</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>41627</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>13</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -768,12 +768,12 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>22</v>
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>22</v>

--- a/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
+++ b/trunk/Projects/QLPhuongTien/dev/management/Project Plan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>Subjects</t>
   </si>
@@ -122,6 +122,9 @@
 + AutoNum =tự tăng, do cơ sở dữ liệu quy đinh.
 + PhuonTienID = AutoNum+ MaLoai_PT
 +LanBDTX chỉ nhân các giá trị(1,2,3).theo quy định thì cứ  3 lần BDTX thì là 1 lần TieuTu , 3 lần TieuTu = 1 lan TrungTu…….các giá trị (1,2,3) dc tính bởi phép chia  TongVH/BDTX  or TongVh/TieuTu....lấy phần nguyên (BDTX , TieuTu , TrungTu , DaiTu là các môc cần phải bảo trì do nhà Quản Lý cung cấp và mình update vào... lấy ở bảng NguyenMauPT)</t>
+  </si>
+  <si>
+    <t>NguyenMauID = XT, XL , MX…. Là mã của các loại phương tiện dc lấy từ bảng LoaiPT</t>
   </si>
 </sst>
 </file>
@@ -520,8 +523,8 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -737,7 +740,7 @@
         <v>41628</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>13</v>
@@ -766,7 +769,9 @@
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
